--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvr2b.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H2">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.486266264674316</v>
+        <v>0.5292956666666667</v>
       </c>
       <c r="N2">
-        <v>0.486266264674316</v>
+        <v>1.587887</v>
       </c>
       <c r="O2">
-        <v>0.1291080943349598</v>
+        <v>0.135651968140022</v>
       </c>
       <c r="P2">
-        <v>0.1291080943349598</v>
+        <v>0.1356519681400219</v>
       </c>
       <c r="Q2">
-        <v>0.5636785795973637</v>
+        <v>0.656421370591</v>
       </c>
       <c r="R2">
-        <v>0.5636785795973637</v>
+        <v>5.907792335319</v>
       </c>
       <c r="S2">
-        <v>0.1291080943349598</v>
+        <v>0.135651968140022</v>
       </c>
       <c r="T2">
-        <v>0.1291080943349598</v>
+        <v>0.1356519681400219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H3">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.28352186165566</v>
+        <v>1.362890666666667</v>
       </c>
       <c r="N3">
-        <v>1.28352186165566</v>
+        <v>4.088672000000001</v>
       </c>
       <c r="O3">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="P3">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="Q3">
-        <v>1.48785517816005</v>
+        <v>1.690228384096</v>
       </c>
       <c r="R3">
-        <v>1.48785517816005</v>
+        <v>15.212055456864</v>
       </c>
       <c r="S3">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
       <c r="T3">
-        <v>0.3407866710774414</v>
+        <v>0.3492921120199358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H4">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99656182391203</v>
+        <v>2.009678666666666</v>
       </c>
       <c r="N4">
-        <v>1.99656182391203</v>
+        <v>6.029036</v>
       </c>
       <c r="O4">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="P4">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="Q4">
-        <v>2.314409233663003</v>
+        <v>2.492361279148</v>
       </c>
       <c r="R4">
-        <v>2.314409233663003</v>
+        <v>22.431251512332</v>
       </c>
       <c r="S4">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
       <c r="T4">
-        <v>0.5301052345875988</v>
+        <v>0.5150559198400423</v>
       </c>
     </row>
   </sheetData>
